--- a/ĐATN/Report/PGNV_DATN Đinh Thị Hồng Phúc 20215118.xlsx
+++ b/ĐATN/Report/PGNV_DATN Đinh Thị Hồng Phúc 20215118.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\HUST\Graduation-Research\ĐATN\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274DE657-95A7-4E05-B365-7E4539AE80DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00663138-0B42-4F27-91F5-CAE14593D3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" xr2:uid="{A4C764ED-A697-7E4F-AB21-1130AE3D2115}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="137">
   <si>
     <t>ĐẠI HỌC BÁCH KHOA HÀ NỘI</t>
   </si>
@@ -454,24 +454,12 @@
     <t>Việt Nhật 03 K66</t>
   </si>
   <si>
-    <t>IT - E6 03 K66</t>
-  </si>
-  <si>
     <t>Hà Nội, ngày        tháng        năm  2025</t>
-  </si>
-  <si>
-    <t>- Ứng dụng học từ vựng trên nền tảng Android.
-- Website học từ vựng.
-- Tài liệu hướng dẫn sử dụng ứng dụng và website.</t>
   </si>
   <si>
     <t>- Phát triển các tính năng chính của ứng dụng và website.
 - Xây dựng module chính của hệ thống.
 - Kiểm tra mã nguồn và đảm bảo tính ổn định của ứng dụng.</t>
-  </si>
-  <si>
-    <t>- Giúp người học ghi nhớ và ôn tập từ vựng nhanh chóng và hiệu quả hơn.
-- Tạo ra môi trường học tập tương tác và phong phú.</t>
   </si>
   <si>
     <t>- Nghiên cứu ReactJS và cách phát triển ứng dụng web.
@@ -518,6 +506,20 @@
 - Thiết kế giao diện người dùng cho ứng dụng và website (sử dụng figma.com).
 - Phân tích luồng dữ liệu và xác định các tính năng chính.
 - Lập kế hoạch phát triển cho từng phần.</t>
+  </si>
+  <si>
+    <t>- Giúp người học quản lý và ghi nhớ từ vựng hiệu quả thông qua các bộ thẻ ghi nhớ (flashcards).
+- Hỗ trợ người học tạo, chỉnh sửa và sắp xếp bộ từ vựng cá nhân hóa theo từng chủ đề, trình độ hoặc ngôn ngữ cụ thể.
+- Hỗ trợ người học lên kế hoạch ôn tập thông minh, ứng dụng thuật toán lặp lại ngắt quãng (Spaced Repetition) để tối ưu hóa trí nhớ dài hạn.
+- Hỗ trợ người dùng chia sẻ, tìm kiếm bộ từ vựng công khai từ cộng đồng để mở rộng nguồn tài liệu học tập.</t>
+  </si>
+  <si>
+    <t>- Ứng dụng học từ vựng trên nền tảng Android, website học từ vựng hỗ trợ:
+   + Học và ghi nhớ từ vựng hiệu quả tích hợp thuật toán Spaced Repetition để tối ưu hóa việc ghi nhớ lâu dài.
+   + Tạo, chỉnh sửa, quản lý các bộ từ vựng cá nhân, phù hợp với mục tiêu học tập riêng.
+   + Hỗ trợ chia sẻ và khám phá các bộ từ vựng công khai từ người dùng khác.
+   + Giao diện thân thiện, dễ sử dụng, hỗ trợ đa ngôn ngữ.
+- Tài liệu hướng dẫn sử dụng ứng dụng và website.</t>
   </si>
 </sst>
 </file>
@@ -853,6 +855,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -863,55 +912,23 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -920,21 +937,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1515,7 +1517,7 @@
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" zoomScalePageLayoutView="144" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:K64"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1535,55 +1537,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="35"/>
+      <c r="K1" s="47"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
@@ -1644,53 +1646,53 @@
       <c r="H9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="40">
         <v>20215118</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
+      <c r="I11" s="40">
+        <v>156720</v>
+      </c>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
@@ -1729,17 +1731,17 @@
         <v>14</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -1749,20 +1751,20 @@
       <c r="C15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="41">
         <v>45698</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="41">
         <v>45824</v>
       </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1780,19 +1782,19 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
+      <c r="A17" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -1806,17 +1808,17 @@
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1825,15 +1827,15 @@
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -1842,15 +1844,15 @@
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1861,17 +1863,17 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -1884,45 +1886,45 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
+      <c r="A26" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
     </row>
     <row r="28" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -1930,49 +1932,49 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
+      <c r="A30" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
     </row>
     <row r="32" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -1980,19 +1982,19 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
+      <c r="A34" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -2000,49 +2002,49 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
+      <c r="A36" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-    </row>
-    <row r="38" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+    </row>
+    <row r="38" spans="1:11" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -2050,49 +2052,45 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
+      <c r="A40" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-    </row>
-    <row r="42" spans="1:11" ht="4.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+    </row>
+    <row r="42" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -2100,19 +2098,19 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -2137,51 +2135,51 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" s="41" t="s">
+      <c r="A47" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
     </row>
     <row r="49" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
@@ -2206,49 +2204,49 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
+      <c r="A52" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
     </row>
     <row r="54" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -2273,45 +2271,45 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
+      <c r="A57" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
     </row>
     <row r="59" spans="1:11" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
@@ -2336,49 +2334,49 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41"/>
+      <c r="A62" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="41" t="s">
+      <c r="A63" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
     </row>
     <row r="64" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
@@ -2403,45 +2401,45 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
+      <c r="A67" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="41"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-      <c r="K68" s="41"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
     </row>
     <row r="69" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
@@ -2455,7 +2453,7 @@
     </row>
     <row r="72" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="H72" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I72" s="31"/>
       <c r="J72" s="31"/>
@@ -2493,7 +2491,7 @@
     </row>
     <row r="83" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H83" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I83" s="32"/>
       <c r="J83" s="32"/>
@@ -2527,14 +2525,14 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Nu08Q1cYWGKa3AQcr42J5Sho/fvQD0DyGcxxouD9eFCQGyXuS4PflxtmR4p+a44JahY6VyWSGZssxdaG6YStXA==" saltValue="3EtgKxcDmcS78SyG92f3Dg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0"/>
   <mergeCells count="30">
-    <mergeCell ref="A62:K64"/>
-    <mergeCell ref="A67:K69"/>
-    <mergeCell ref="A57:K59"/>
-    <mergeCell ref="A36:K38"/>
-    <mergeCell ref="A40:K42"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="A47:K49"/>
-    <mergeCell ref="A52:K54"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="A34:K34"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C13:K13"/>
@@ -2549,14 +2547,14 @@
     <mergeCell ref="A30:K32"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="C21:K21"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A62:K64"/>
+    <mergeCell ref="A67:K69"/>
+    <mergeCell ref="A57:K59"/>
+    <mergeCell ref="A36:K38"/>
+    <mergeCell ref="A40:K42"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="A47:K49"/>
+    <mergeCell ref="A52:K54"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:K21" xr:uid="{E32655BA-5193-E345-B3B2-3CF8E3521EE9}">
@@ -2602,55 +2600,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="35"/>
+      <c r="K1" s="47"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
@@ -2701,53 +2699,53 @@
         <v>4</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
@@ -2769,34 +2767,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -2806,20 +2804,20 @@
       <c r="C15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
       <c r="H15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="52" t="s">
+      <c r="I15" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -2837,19 +2835,19 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -2863,17 +2861,17 @@
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -2882,17 +2880,17 @@
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -2901,17 +2899,17 @@
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -2922,19 +2920,19 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -2947,49 +2945,49 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
     </row>
     <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -2997,49 +2995,49 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
     </row>
     <row r="32" spans="1:11" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -3047,19 +3045,19 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="61.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -3067,49 +3065,49 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -3117,49 +3115,49 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
     </row>
     <row r="41" spans="1:11" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
     </row>
     <row r="42" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -3167,19 +3165,19 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -3204,51 +3202,51 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
     </row>
     <row r="49" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
@@ -3273,49 +3271,49 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
     </row>
     <row r="54" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -3340,45 +3338,45 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="54"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="54"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
     </row>
     <row r="59" spans="1:11" ht="61.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
@@ -3403,49 +3401,49 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="53" t="s">
+      <c r="A62" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="54"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
     </row>
     <row r="64" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
@@ -3470,49 +3468,49 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="53" t="s">
+      <c r="A67" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="54" t="s">
+      <c r="A68" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="54"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="54"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
     </row>
     <row r="69" spans="1:11" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="54"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
@@ -3623,6 +3621,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BGi8yx47VbC1Z6IK7ouerj7QXfmt4Uz8BvRJm6qVJtNkE8zlH7VlgbbHKDGlF+JfMnXKznyv+sXEK6/eVTuw7w==" saltValue="Feo01M3r5L+812YlMQO1IQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="30">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I11:K11"/>
     <mergeCell ref="A67:K69"/>
     <mergeCell ref="A62:K64"/>
     <mergeCell ref="C19:K19"/>
@@ -3638,21 +3651,6 @@
     <mergeCell ref="A26:K28"/>
     <mergeCell ref="A30:K32"/>
     <mergeCell ref="A34:K34"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
